--- a/App-V-0.1/Allocation_Template_2_Cole.xlsx
+++ b/App-V-0.1/Allocation_Template_2_Cole.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="86">
   <si>
     <t xml:space="preserve">Jenny &amp; John Allocation</t>
   </si>
@@ -107,6 +107,9 @@
     <t xml:space="preserve">Cole</t>
   </si>
   <si>
+    <t xml:space="preserve">Coinbase</t>
+  </si>
+  <si>
     <t xml:space="preserve">MMLIS</t>
   </si>
   <si>
@@ -138,9 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Eileen (RWBP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AF</t>
   </si>
   <si>
     <t xml:space="preserve">Eileen </t>
@@ -288,15 +288,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="#,##0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
+    <numFmt numFmtId="169" formatCode="#,##0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -331,6 +333,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -372,27 +381,28 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -422,30 +432,9 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -461,6 +450,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -503,7 +499,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -532,27 +528,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -560,95 +544,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -656,39 +608,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -711,14 +667,11 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="1" sqref="E3:E17 D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="17.5051020408163"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -733,7 +686,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>1</v>
@@ -819,55 +772,55 @@
       <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="8" t="n">
         <v>94253</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="11" t="n">
+      <c r="F3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="8" t="n">
         <v>94253</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -879,175 +832,175 @@
       <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="11" t="n">
+      <c r="E4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8" t="n">
         <v>39695</v>
       </c>
-      <c r="J4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11" t="n">
+      <c r="J4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8" t="n">
         <v>39695</v>
       </c>
-      <c r="T4" s="13"/>
+      <c r="T4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>13793.05</v>
-      </c>
-      <c r="F5" s="10" t="n">
-        <v>1729.84</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="H5" s="11" t="n">
-        <v>1693.89</v>
-      </c>
-      <c r="I5" s="11" t="n">
-        <v>2234.17</v>
-      </c>
-      <c r="J5" s="11" t="n">
-        <v>1626</v>
-      </c>
-      <c r="K5" s="11" t="n">
-        <v>3150.14</v>
-      </c>
-      <c r="L5" s="11" t="n">
-        <v>771.6</v>
-      </c>
-      <c r="M5" s="11" t="n">
-        <v>837.35</v>
-      </c>
-      <c r="N5" s="11" t="n">
-        <v>857.76</v>
-      </c>
-      <c r="O5" s="11" t="n">
-        <v>992.44</v>
-      </c>
-      <c r="P5" s="11" t="n">
-        <v>98.67</v>
-      </c>
-      <c r="Q5" s="11" t="n">
-        <v>642.55</v>
-      </c>
-      <c r="R5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="11" t="n">
-        <v>28439.02</v>
-      </c>
-      <c r="T5" s="13"/>
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>8964.1</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>8964.1</v>
+      </c>
+      <c r="T5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="n">
-        <v>447.13</v>
-      </c>
-      <c r="F6" s="10" t="n">
-        <v>1096.64</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="H6" s="11" t="n">
-        <v>1100.41</v>
-      </c>
-      <c r="I6" s="11" t="n">
-        <v>1356.45</v>
-      </c>
-      <c r="J6" s="11" t="n">
-        <v>971.45</v>
-      </c>
-      <c r="K6" s="11" t="n">
-        <v>1821.46</v>
-      </c>
-      <c r="L6" s="11" t="n">
-        <v>421.71</v>
-      </c>
-      <c r="M6" s="11" t="n">
-        <v>548.79</v>
-      </c>
-      <c r="N6" s="11" t="n">
-        <v>472.54</v>
-      </c>
-      <c r="O6" s="11" t="n">
-        <v>654.22</v>
-      </c>
-      <c r="P6" s="11" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="Q6" s="11" t="n">
-        <v>510.2</v>
-      </c>
-      <c r="R6" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="11" t="n">
-        <v>9413.24</v>
-      </c>
-      <c r="T6" s="13"/>
+      <c r="E6" s="8" t="n">
+        <v>13793.05</v>
+      </c>
+      <c r="F6" s="8" t="n">
+        <v>1729.84</v>
+      </c>
+      <c r="G6" s="8" t="n">
+        <v>11.56</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1693.89</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>2234.17</v>
+      </c>
+      <c r="J6" s="8" t="n">
+        <v>1626</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>3150.14</v>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>771.6</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>837.35</v>
+      </c>
+      <c r="N6" s="8" t="n">
+        <v>857.76</v>
+      </c>
+      <c r="O6" s="8" t="n">
+        <v>992.44</v>
+      </c>
+      <c r="P6" s="8" t="n">
+        <v>98.67</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v>642.55</v>
+      </c>
+      <c r="R6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="n">
+        <v>28439.02</v>
+      </c>
+      <c r="T6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1056,601 +1009,641 @@
       <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="F7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>1331.23</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>1307.84</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>1291.47</v>
-      </c>
-      <c r="K7" s="11" t="n">
-        <v>23.49</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="M7" s="11" t="n">
-        <v>436.82</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>428.18</v>
-      </c>
-      <c r="O7" s="11" t="n">
-        <v>473.81</v>
-      </c>
-      <c r="P7" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11" t="n">
-        <v>182.94</v>
-      </c>
-      <c r="R7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="11" t="n">
-        <v>5507.04</v>
-      </c>
-      <c r="T7" s="13"/>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>5947.13</v>
+      </c>
+      <c r="F7" s="8" t="n">
+        <v>1096.64</v>
+      </c>
+      <c r="G7" s="8" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1100.41</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>1356.45</v>
+      </c>
+      <c r="J7" s="8" t="n">
+        <v>971.45</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>1821.46</v>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>421.71</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>548.79</v>
+      </c>
+      <c r="N7" s="8" t="n">
+        <v>472.54</v>
+      </c>
+      <c r="O7" s="8" t="n">
+        <v>654.22</v>
+      </c>
+      <c r="P7" s="8" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>510.2</v>
+      </c>
+      <c r="R7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8" t="n">
+        <v>14913.24</v>
+      </c>
+      <c r="T7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>79.05</v>
-      </c>
-      <c r="F8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>22498.87</v>
-      </c>
-      <c r="I8" s="11" t="n">
-        <v>22103.59</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>21826.9</v>
-      </c>
-      <c r="K8" s="11" t="n">
-        <v>324.12</v>
-      </c>
-      <c r="L8" s="11" t="n">
-        <v>363.65</v>
-      </c>
-      <c r="M8" s="11" t="n">
-        <v>4158.26</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>2324.2</v>
-      </c>
-      <c r="O8" s="11" t="n">
-        <v>3241.23</v>
-      </c>
-      <c r="P8" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="11" t="n">
-        <v>2134.47</v>
-      </c>
-      <c r="R8" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="11" t="n">
-        <v>79054.34</v>
-      </c>
-      <c r="T8" s="13"/>
+      <c r="E8" s="8" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>1331.23</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>1307.84</v>
+      </c>
+      <c r="J8" s="8" t="n">
+        <v>1291.47</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>23.49</v>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>25.17</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>436.82</v>
+      </c>
+      <c r="N8" s="8" t="n">
+        <v>428.18</v>
+      </c>
+      <c r="O8" s="8" t="n">
+        <v>473.81</v>
+      </c>
+      <c r="P8" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>182.94</v>
+      </c>
+      <c r="R8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8" t="n">
+        <v>5507.04</v>
+      </c>
+      <c r="T8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9" t="n">
-        <v>220.99</v>
-      </c>
-      <c r="F9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>62894.35</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>61789.39</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>61015.92</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <v>906.07</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>1016.56</v>
-      </c>
-      <c r="M9" s="11" t="n">
-        <v>11624.18</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>6497.17</v>
-      </c>
-      <c r="O9" s="11" t="n">
-        <v>9060.68</v>
-      </c>
-      <c r="P9" s="11" t="n">
-        <v>5966.79</v>
-      </c>
-      <c r="Q9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="11" t="n">
-        <v>220992.1</v>
-      </c>
-      <c r="T9" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>79.05</v>
+      </c>
+      <c r="F9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>22498.87</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>22103.59</v>
+      </c>
+      <c r="J9" s="8" t="n">
+        <v>21826.9</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>324.12</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>363.65</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>4158.26</v>
+      </c>
+      <c r="N9" s="8" t="n">
+        <v>2324.2</v>
+      </c>
+      <c r="O9" s="8" t="n">
+        <v>3241.23</v>
+      </c>
+      <c r="P9" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <v>2134.47</v>
+      </c>
+      <c r="R9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="8" t="n">
+        <v>79054.34</v>
+      </c>
+      <c r="T9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="18" t="n">
-        <v>283.09</v>
-      </c>
-      <c r="F10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>2097.81</v>
-      </c>
-      <c r="H10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="11" t="n">
-        <v>2380.9</v>
-      </c>
-      <c r="T10" s="13"/>
+      <c r="E10" s="8" t="n">
+        <v>220.99</v>
+      </c>
+      <c r="F10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>62894.35</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>61789.39</v>
+      </c>
+      <c r="J10" s="8" t="n">
+        <v>61015.92</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>906.07</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>1016.56</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>11624.18</v>
+      </c>
+      <c r="N10" s="8" t="n">
+        <v>6497.17</v>
+      </c>
+      <c r="O10" s="8" t="n">
+        <v>9060.68</v>
+      </c>
+      <c r="P10" s="8" t="n">
+        <v>5966.79</v>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="8" t="n">
+        <v>220992.1</v>
+      </c>
+      <c r="T10" s="10"/>
     </row>
     <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="18" t="n">
-        <v>54.65</v>
-      </c>
-      <c r="F11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11" t="n">
-        <v>5652.76</v>
-      </c>
-      <c r="I11" s="11" t="n">
-        <v>5523.58</v>
-      </c>
-      <c r="J11" s="11" t="n">
-        <v>5450.05</v>
-      </c>
-      <c r="K11" s="11" t="n">
-        <v>16067.55</v>
-      </c>
-      <c r="L11" s="11" t="n">
-        <v>15231.1</v>
-      </c>
-      <c r="M11" s="11" t="n">
-        <v>2271.18</v>
-      </c>
-      <c r="N11" s="11" t="n">
-        <v>11181.21</v>
-      </c>
-      <c r="O11" s="11" t="n">
-        <v>6419.16</v>
-      </c>
-      <c r="P11" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="11" t="n">
-        <v>531.61</v>
-      </c>
-      <c r="R11" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" s="11" t="n">
-        <v>68382.85</v>
-      </c>
-      <c r="T11" s="13"/>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>283.09</v>
+      </c>
+      <c r="F11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="n">
+        <v>2097.81</v>
+      </c>
+      <c r="H11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="8" t="n">
+        <v>2380.9</v>
+      </c>
+      <c r="T11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="18" t="n">
-        <v>106.55</v>
-      </c>
-      <c r="F12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11" t="n">
-        <v>11084.65</v>
-      </c>
-      <c r="I12" s="11" t="n">
-        <v>10838.4</v>
-      </c>
-      <c r="J12" s="11" t="n">
-        <v>10695.17</v>
-      </c>
-      <c r="K12" s="11" t="n">
-        <v>27778.81</v>
-      </c>
-      <c r="L12" s="11" t="n">
-        <v>26107.65</v>
-      </c>
-      <c r="M12" s="11" t="n">
-        <v>5307.06</v>
-      </c>
-      <c r="N12" s="11" t="n">
-        <v>21517</v>
-      </c>
-      <c r="O12" s="11" t="n">
-        <v>13105.69</v>
-      </c>
-      <c r="P12" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="11" t="n">
-        <v>1368.35</v>
-      </c>
-      <c r="R12" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" s="11" t="n">
-        <v>127909.33</v>
-      </c>
-      <c r="T12" s="13"/>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>54.65</v>
+      </c>
+      <c r="F12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>5652.76</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>5523.58</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>5450.05</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>16067.55</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>15231.1</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>2271.18</v>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>11181.21</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>6419.16</v>
+      </c>
+      <c r="P12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <v>531.61</v>
+      </c>
+      <c r="R12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="8" t="n">
+        <v>68382.85</v>
+      </c>
+      <c r="T12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="18" t="n">
-        <v>3522</v>
-      </c>
-      <c r="F13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" s="11" t="n">
-        <v>3522</v>
-      </c>
-      <c r="T13" s="13"/>
+      <c r="B13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>106.55</v>
+      </c>
+      <c r="F13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>11084.65</v>
+      </c>
+      <c r="I13" s="8" t="n">
+        <v>10838.4</v>
+      </c>
+      <c r="J13" s="8" t="n">
+        <v>10695.17</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>27778.81</v>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>26107.65</v>
+      </c>
+      <c r="M13" s="8" t="n">
+        <v>5307.06</v>
+      </c>
+      <c r="N13" s="8" t="n">
+        <v>21517</v>
+      </c>
+      <c r="O13" s="8" t="n">
+        <v>13105.69</v>
+      </c>
+      <c r="P13" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8" t="n">
+        <v>1368.35</v>
+      </c>
+      <c r="R13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8" t="n">
+        <v>127909.33</v>
+      </c>
+      <c r="T13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>3522</v>
+      </c>
+      <c r="F14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8" t="n">
+        <v>3522</v>
+      </c>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="n">
+      <c r="E15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="n">
         <v>28315</v>
       </c>
-      <c r="H14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" s="11" t="n">
+      <c r="H15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8" t="n">
         <v>28315</v>
       </c>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="18" t="n">
-        <v>112765.6</v>
-      </c>
-      <c r="F15" s="10" t="n">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8" t="n">
+        <v>118265.6</v>
+      </c>
+      <c r="F16" s="8" t="n">
         <v>2826.48</v>
       </c>
-      <c r="G15" s="11" t="n">
+      <c r="G16" s="8" t="n">
         <v>30430.96</v>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="H16" s="8" t="n">
         <v>106256.16</v>
       </c>
-      <c r="I15" s="11" t="n">
+      <c r="I16" s="8" t="n">
         <v>144848.42</v>
       </c>
-      <c r="J15" s="11" t="n">
+      <c r="J16" s="8" t="n">
         <v>102876.96</v>
       </c>
-      <c r="K15" s="11" t="n">
+      <c r="K16" s="8" t="n">
         <v>50071.64</v>
       </c>
-      <c r="L15" s="11" t="n">
+      <c r="L16" s="8" t="n">
         <v>43937.44</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M16" s="8" t="n">
         <v>25183.64</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N16" s="8" t="n">
         <v>43278.06</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O16" s="8" t="n">
         <v>33947.23</v>
       </c>
-      <c r="P15" s="11" t="n">
-        <v>6071.11</v>
-      </c>
-      <c r="Q15" s="11" t="n">
+      <c r="P16" s="8" t="n">
+        <f aca="false">8964.1+6071.11</f>
+        <v>15035.21</v>
+      </c>
+      <c r="Q16" s="8" t="n">
         <v>5370.12</v>
       </c>
-      <c r="R15" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" s="11" t="n">
-        <v>707863.82</v>
-      </c>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="13"/>
+      <c r="R16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="8" t="n">
+        <v>722327.92</v>
+      </c>
+      <c r="T16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="13"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="13"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K1:S1"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A18:D18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1670,19 +1663,17 @@
   </sheetPr>
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3:E17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.9387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,228 +1686,215 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>43131</v>
-      </c>
-      <c r="G1" s="35" t="str">
+        <v>43137</v>
+      </c>
+      <c r="G1" s="24" t="str">
         <f aca="false">Accounts!J1</f>
         <v>As of 9/8/16</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="19.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="F2" s="26"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="40" t="n">
+      <c r="B3" s="29" t="n">
         <v>0.06</v>
       </c>
-      <c r="C3" s="41" t="n">
+      <c r="C3" s="30" t="n">
         <v>14</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="42"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="40" t="n">
+      <c r="B4" s="29" t="n">
         <v>0.045</v>
       </c>
-      <c r="C4" s="41" t="n">
+      <c r="C4" s="30" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="40" t="n">
+      <c r="B5" s="29" t="n">
         <v>0.045</v>
       </c>
-      <c r="C5" s="41" t="n">
+      <c r="C5" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="40" t="n">
+      <c r="B6" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="C6" s="41" t="n">
+      <c r="C6" s="30" t="n">
         <v>9</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="39" t="s">
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="41" t="n">
+      <c r="B7" s="29" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="C7" s="30" t="n">
         <v>8</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="41" t="n">
+      <c r="B8" s="29" t="n">
+        <v>0.085</v>
+      </c>
+      <c r="C8" s="30" t="n">
         <v>10</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="39" t="s">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="40" t="n">
+      <c r="B9" s="29" t="n">
         <v>0.18</v>
       </c>
-      <c r="C9" s="41" t="n">
+      <c r="C9" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="40" t="n">
+      <c r="B10" s="29" t="n">
         <v>0.12</v>
       </c>
-      <c r="C10" s="41" t="n">
+      <c r="C10" s="30" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="42"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="39" t="s">
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="40" t="n">
+      <c r="B11" s="29" t="n">
         <v>0.035</v>
       </c>
-      <c r="C11" s="41" t="n">
+      <c r="C11" s="30" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="29" t="n">
         <v>0.06</v>
       </c>
-      <c r="C12" s="41" t="n">
+      <c r="C12" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="39" t="s">
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="40" t="n">
+      <c r="B13" s="29" t="n">
         <v>0.035</v>
       </c>
-      <c r="C13" s="41" t="n">
+      <c r="C13" s="30" t="n">
         <v>7</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="40" t="n">
+      <c r="B14" s="29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="29" t="n">
         <v>0.01</v>
       </c>
-      <c r="C14" s="41" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="42"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="40" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="C15" s="41" t="n">
+      <c r="C15" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="42"/>
+      <c r="E15" s="31"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="41" t="n">
+      <c r="B16" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="30" t="n">
         <v>11</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="43" t="n">
-        <f aca="false">SUM(Categories!B3:B16)</f>
+      <c r="B17" s="34" t="n">
+        <f aca="false">SUM(B3:B15)</f>
         <v>1</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="34" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1943,16 +1921,16 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="E3:E17 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1965,23 +1943,23 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>43131</v>
-      </c>
-      <c r="G1" s="44" t="str">
+        <v>43137</v>
+      </c>
+      <c r="G1" s="35" t="str">
         <f aca="false">Accounts!J1</f>
         <v>As of 9/8/16</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -2008,10 +1986,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="41" t="n">
+      <c r="B5" s="30" t="n">
         <f aca="false">SUM(IRA_Statues!B3:B4)</f>
         <v>0</v>
       </c>
@@ -2039,17 +2017,19 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="1" sqref="E3:E17 C35"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.8571428571429"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.0459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2064,7 +2044,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="I1" s="3" t="str">
         <f aca="false">Accounts!J1</f>
@@ -2083,22 +2063,22 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>35</v>
+      <c r="A3" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>56</v>
@@ -2111,7 +2091,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2125,7 +2105,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2139,8 +2119,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>28</v>
+      <c r="A6" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>56</v>
@@ -2153,7 +2133,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2167,7 +2147,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2181,7 +2161,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="12" t="s">
         <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2195,7 +2175,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2209,7 +2189,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2223,7 +2203,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="12" t="s">
         <v>41</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2237,7 +2217,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="12" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2251,7 +2231,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2265,7 +2245,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2279,7 +2259,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2293,7 +2273,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2307,7 +2287,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2319,10 +2299,10 @@
       <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2334,10 +2314,10 @@
       <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="12" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2349,10 +2329,10 @@
       <c r="D20" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2366,7 +2346,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2409,7 +2389,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>56</v>
@@ -2472,12 +2452,13 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E3:E17 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2492,7 +2473,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2" t="n">
         <f aca="true">TODAY()</f>
-        <v>43131</v>
+        <v>43137</v>
       </c>
       <c r="I1" s="3" t="str">
         <f aca="false">Accounts!J1</f>
@@ -2519,10 +2500,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="39" t="n">
+      <c r="B3" s="28" t="n">
         <v>1000000</v>
       </c>
     </row>
